--- a/medicine/Mort/Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale/Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale/Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières militaires de la Seconde Guerre mondiale, créés à la suite de la Seconde Guerre mondiale, sont dédiés aux soldats tombés — agresseurs comme défenseurs — selon les droits humanitaires de la convention de Genève. Des accords bilatéraux ont été définis entre les nations concernées pour statuer sur ces lieux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cimetières américains
-Cimetière militaire américain de Neuville-en-Condroz
+          <t>Cimetières américains</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cimetière militaire américain de Neuville-en-Condroz
 Cimetière militaire américain de Henri-Chapelle (Welkenraedt)</t>
         </is>
       </c>
@@ -525,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,45 +562,425 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grand Est
-Cimetière américain d'Épinal
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière américain d'Épinal
 Cimetière américain de Saint-Avold
-Cimetière militaire polonais de Dieuze
-Cimetières allemands
-Cimetière militaire allemand de Niederbronn-les-Bains
-Cimetière militaire allemand de Bergheim
-Nouvelle-Aquitaine
-Cimetière allemand
-Cimetière militaire allemand de Berneuil à Berneuil (Charente-Maritime)
-Cimetière français
-Nécropole nationale de Rétaud
-Mémorial de la Résistance
-Auvergne-Rhône-Alpes
-Cimetières français et alliés
-Nécropole nationale de la Doua à Villeurbanne, dans le Rhône.
+Cimetière militaire polonais de Dieuze</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cimetières allemands</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière militaire allemand de Niederbronn-les-Bains
+Cimetière militaire allemand de Bergheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cimetière allemand</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cimetière militaire allemand de Berneuil à Berneuil (Charente-Maritime)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cimetière français</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nécropole nationale de Rétaud
+Mémorial de la Résistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cimetières français et alliés</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nécropole nationale de la Doua à Villeurbanne, dans le Rhône.
 Tata sénégalais de Chasselay, nécropole nationale de Chasselay (Rhône)
-Nécropole nationale d'Eygalayes, en Drôme provençale
-Cimetière allemand
-Cimetière militaire allemand de Dagneux dans l'Ain
-Bretagne
-Cimetière militaire allemand de Ploudaniel-Lesneven
+Nécropole nationale d'Eygalayes, en Drôme provençale</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cimetière allemand</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cimetière militaire allemand de Dagneux dans l'Ain</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cimetière militaire allemand de Ploudaniel-Lesneven
 Cimetière militaire allemand de Pornichet
-Carré militaire britannique du cimetière de l'Est de Rennes
-Normandie
-Cimetières américains
-Cimetière américain de Colleville-sur-Mer
-Cimetière américain de Saint-James
-Cimetières allemands
-Cimetière militaire allemand de La Cambe
+Carré militaire britannique du cimetière de l'Est de Rennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cimetières américains</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cimetière américain de Colleville-sur-Mer
+Cimetière américain de Saint-James</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cimetières allemands</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimetière militaire allemand de La Cambe
 Cimetière militaire allemand de Champigny-Saint-André
 Cimetière militaire allemand de Marigny
 Mausolée du Mont d'Huisnes
 Cimetière militaire allemand d'Orglandes
 Cimetière militaire allemand de Saint-Désir-de-Lisieux
 Des soldats allemands reposent aussi dans la dizaine de cimetières britanniques de Normandie.
-Cimetière français
-Nécropole nationale des Gateys
-Cimetières britanniques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cimetière français</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nécropole nationale des Gateys</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cimetières britanniques</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cimetière militaire du Commonwealth de Banneville-la-Campagne
 Cimetière militaire britannique de Bayeux
 Cimetière militaire du Commonwealth de Bazenville
@@ -599,29 +996,258 @@
 Cimetière militaire du Commonwealth de Saint-Manvieu-Norrey
 Cimetière militaire du Commonwealth de Secqueville-en-Bessin
 Cimetière militaire du Commonwealth de Tilly-sur-seulles
-Cimetières canadiens
-Cimetière militaire canadien de Bretteville-sur-Laize (Commune de Cintheaux)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cimetières canadiens</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cimetière militaire canadien de Bretteville-sur-Laize (Commune de Cintheaux)
 Cimetière militaire canadien de Bény-sur-Mer (commune de Reviers)
-Cimetière militaire canadien de Dieppe
-Cimetière polonais
-Cimetière militaire polonais de Grainville-Langannerie :
-Hauts-de-France
-Cimetière américain
-Cimetière américain de Seringes-et-Nesles (Aisne) carré E 95 sépultures Seconde Guerre mondiale.
+Cimetière militaire canadien de Dieppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cimetière polonais</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cimetière militaire polonais de Grainville-Langannerie :</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cimetière américain</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimetière américain de Seringes-et-Nesles (Aisne) carré E 95 sépultures Seconde Guerre mondiale.
 (Source informations GRP PICARDIE 1939-1945)
-Cimetière allemand
-Cimetière militaire du Fort de la Malmaison à Chavignon (Aisne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cimetière allemand</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cimetière militaire du Fort de la Malmaison à Chavignon (Aisne).
 Cimetière militaire de Beauvais (Oise).
-Cimetière militaire allemand de Bourdon (Somme).
-Cimetière du Commonwealth
-Abbeville (Somme) : Cimetière militaire britannique de la Chapelle et carré militaire britannique
+Cimetière militaire allemand de Bourdon (Somme).</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cimetière du Commonwealth</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Abbeville (Somme) : Cimetière militaire britannique de la Chapelle et carré militaire britannique
 Amiens (Somme) : Cimetière britannique Saint-Pierre
 Longueau (Somme) : Cimetière militaire.
 Poix de Picardie (Somme) : Cimetière militaire britannique
 Roye (Somme) : Cimetière militaire Roye.
-Blargies (Oise : Cimetière militaire britannique
-Nécropole nationale française
-Nécropole nationale de Ambleny WWI-WWII
+Blargies (Oise : Cimetière militaire britannique</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Nécropole nationale française</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nécropole nationale de Ambleny WWI-WWII
 Nécropole nationale de Marissel à Beauvais WWI-WWII
 Nécropole nationale de Cambronne-lès-Ribécourt WWII
 Nécropole nationale de Catenoy WWI-WWII
@@ -640,175 +1266,408 @@
 Nécropole nationale de Vauxaillon WWI-WWII
 Nécropole nationale de Vailly-sur-Aisne WWI-WWII
 Nécropole nationale de Verberie.WWI-WWII
-Nécropole nationale de Vic-sur-Aisne WWI-WWII
-Cimetière soviétique
-Cimetière militaire soviétique de Noyers-Saint-Martin (Oise).
-Cimetière néerlandais
-Cimetière militaire néerlandais d'Orry-la-Ville.
-Île-de-France
-Cimetière américain de Suresnes
+Nécropole nationale de Vic-sur-Aisne WWI-WWII</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cimetière soviétique</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cimetière militaire soviétique de Noyers-Saint-Martin (Oise).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cimetière néerlandais</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cimetière militaire néerlandais d'Orry-la-Ville.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cimetière américain de Suresnes
 Carré militaire du cimetière musulman de Bobigny
-Cimetière allemand de Solers (77 Seine-et-Marne)
-Provence-Alpes-Côte d'Azur
-Cimetière américain
-Cimetière américain de Draguignan
-Cimetières français
-Nécropole nationale de Boulouris
+Cimetière allemand de Solers (77 Seine-et-Marne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cimetière américain</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cimetière américain de Draguignan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cimetières français</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nécropole nationale de Boulouris
 Nécropole nationale du Rayol-Canadel-sur-Mer
 Nécropole nationale de Luynes
-Cimetière militaire franco-italien, Saint-Mandrier-sur-Mer
-Cimetière britannique
-Mazargues War Cemetery, Marseille</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Cimetière militaire franco-italien, Saint-Mandrier-sur-Mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cimetière britannique</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mazargues War Cemetery, Marseille</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Cimetière soviétique de Treptower Park (Berlin)
 Cimetière soviétique de Tiergarten (Berlin)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cimetière-mausolée des combattants soviétiques de Varsovie</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>République tchèque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Cimetière français de Cheb</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Russie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Carré des Français du Normandie-Niémen à Moscou
 Cimetière Mamaïev de Stalingrad, aujourd'hui Volgograd</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Italie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Cimetière militaire brésilien de Pistoia
 Cimetière militaire polonais du Mont-Cassin
@@ -816,31 +1675,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_militaires_de_la_Seconde_Guerre_mondiale</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Afrique du Nord</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
